--- a/day-01/DATA_FOR_HR_TABLE.xlsx
+++ b/day-01/DATA_FOR_HR_TABLE.xlsx
@@ -1,205 +1,222 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinodkumar/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="722">
   <si>
+    <t>REGION_ID</t>
+  </si>
+  <si>
+    <t>REGION_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Europe </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Americas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Middle East and Africa </t>
+  </si>
+  <si>
+    <t>COUNTRY_ID</t>
+  </si>
+  <si>
+    <t>COUNTRY_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> China</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> France</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HongKong</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Belgium</t>
+  </si>
+  <si>
+    <t>LOCATION_ID</t>
+  </si>
+  <si>
+    <t>STREET_ADDRESS</t>
+  </si>
+  <si>
+    <t>POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>STATE_PROVINCE</t>
+  </si>
+  <si>
+    <t>COUNTRY_CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1297 Via Cola di Rie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roma</t>
+  </si>
+  <si>
     <t xml:space="preserve"> NULL</t>
   </si>
   <si>
-    <t xml:space="preserve"> Europe </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Americas </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asia </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Middle East and Africa </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> US</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> United States of America</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> China</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> India</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ZW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> France</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ZM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HongKong</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1297 Via Cola di Rie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Roma</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 93091 Calle della Testa</t>
   </si>
   <si>
@@ -386,6 +403,18 @@
     <t xml:space="preserve"> Distrito Federal</t>
   </si>
   <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>DEPARTMENT_ID</t>
+  </si>
+  <si>
+    <t>DEPARTMENT_NAME</t>
+  </si>
+  <si>
+    <t>MANAGER_ID</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Administration</t>
   </si>
   <si>
@@ -464,6 +493,18 @@
     <t xml:space="preserve"> Payroll</t>
   </si>
   <si>
+    <t>JOB_ID</t>
+  </si>
+  <si>
+    <t>JOB_TITLE</t>
+  </si>
+  <si>
+    <t>MIN_SALARY</t>
+  </si>
+  <si>
+    <t>MAX_SALARY</t>
+  </si>
+  <si>
     <t xml:space="preserve"> AD_PRES</t>
   </si>
   <si>
@@ -578,6 +619,30 @@
     <t xml:space="preserve"> Public Relations Representative</t>
   </si>
   <si>
+    <t>EMPLOYEE_ID</t>
+  </si>
+  <si>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>HIRE_DATE</t>
+  </si>
+  <si>
+    <t>SALARY</t>
+  </si>
+  <si>
+    <t>COMMISSION_PCT</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Steven</t>
   </si>
   <si>
@@ -2084,6 +2149,12 @@
     <t xml:space="preserve"> 515.123.8181</t>
   </si>
   <si>
+    <t>START_DATE</t>
+  </si>
+  <si>
+    <t>END_DATE</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1998-07-24</t>
   </si>
   <si>
@@ -2109,103 +2180,26 @@
   </si>
   <si>
     <t xml:space="preserve"> 1994-07-01</t>
-  </si>
-  <si>
-    <t>MX</t>
-  </si>
-  <si>
-    <t>REGION_ID</t>
-  </si>
-  <si>
-    <t>REGION_NAME</t>
-  </si>
-  <si>
-    <t>COUNTRY_ID</t>
-  </si>
-  <si>
-    <t>COUNTRY_NAME</t>
-  </si>
-  <si>
-    <t>LOCATION_ID</t>
-  </si>
-  <si>
-    <t>STREET_ADDRESS</t>
-  </si>
-  <si>
-    <t>POSTAL_CODE</t>
-  </si>
-  <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t>STATE_PROVINCE</t>
-  </si>
-  <si>
-    <t>COUNTRY_CODE</t>
-  </si>
-  <si>
-    <t>DEPARTMENT_ID</t>
-  </si>
-  <si>
-    <t>DEPARTMENT_NAME</t>
-  </si>
-  <si>
-    <t>MANAGER_ID</t>
-  </si>
-  <si>
-    <t>JOB_ID</t>
-  </si>
-  <si>
-    <t>JOB_TITLE</t>
-  </si>
-  <si>
-    <t>MIN_SALARY</t>
-  </si>
-  <si>
-    <t>MAX_SALARY</t>
-  </si>
-  <si>
-    <t>EMPLOYEE_ID</t>
-  </si>
-  <si>
-    <t>FIRSTNAME</t>
-  </si>
-  <si>
-    <t>LASTNAME</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>PHONE_NUMBER</t>
-  </si>
-  <si>
-    <t>HIRE_DATE</t>
-  </si>
-  <si>
-    <t>SALARY</t>
-  </si>
-  <si>
-    <t>COMMISSION_PCT</t>
-  </si>
-  <si>
-    <t>START_DATE</t>
-  </si>
-  <si>
-    <t>END_DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2216,7 +2210,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -2228,268 +2229,156 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="14">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0" headerRowDxfId="45" dataDxfId="46">
-  <autoFilter ref="A1:B5"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="REGION_ID" dataDxfId="48"/>
-    <tableColumn id="2" name="REGION_NAME" dataDxfId="47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:C32" displayName="Table2" name="Table2" id="1" totalsRowShown="0">
+  <autoFilter ref="A7:C32"/>
+  <tableColumns count="3">
+    <tableColumn name="COUNTRY_ID" id="1"/>
+    <tableColumn name="COUNTRY_NAME" id="2"/>
+    <tableColumn name="REGION_ID" id="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A7:C32" totalsRowShown="0" headerRowDxfId="40" dataDxfId="41">
-  <autoFilter ref="A7:C32"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="COUNTRY_ID" dataDxfId="44"/>
-    <tableColumn id="2" name="COUNTRY_NAME" dataDxfId="43"/>
-    <tableColumn id="3" name="REGION_ID" dataDxfId="42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B5" displayName="Table1" name="Table1" id="2" totalsRowShown="0">
+  <autoFilter ref="A1:B5"/>
+  <tableColumns count="2">
+    <tableColumn name="REGION_ID" id="1"/>
+    <tableColumn name="REGION_NAME" id="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A34:F57" totalsRowShown="0" headerRowDxfId="32" dataDxfId="33">
-  <autoFilter ref="A34:F57"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="LOCATION_ID" dataDxfId="39"/>
-    <tableColumn id="2" name="STREET_ADDRESS" dataDxfId="38"/>
-    <tableColumn id="3" name="POSTAL_CODE" dataDxfId="37"/>
-    <tableColumn id="4" name="CITY" dataDxfId="36"/>
-    <tableColumn id="5" name="STATE_PROVINCE" dataDxfId="35"/>
-    <tableColumn id="6" name="COUNTRY_CODE" dataDxfId="34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A218:E228" displayName="Table7" name="Table7" id="3" totalsRowShown="0">
+  <autoFilter ref="A218:E228"/>
+  <tableColumns count="5">
+    <tableColumn name="EMPLOYEE_ID" id="1"/>
+    <tableColumn name="START_DATE" id="2"/>
+    <tableColumn name="END_DATE" id="3"/>
+    <tableColumn name="JOB_ID" id="4"/>
+    <tableColumn name="DEPARTMENT_ID" id="5"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A59:D86" totalsRowShown="0" headerRowDxfId="26" dataDxfId="27">
-  <autoFilter ref="A59:D86"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="DEPARTMENT_ID" dataDxfId="31"/>
-    <tableColumn id="2" name="DEPARTMENT_NAME" dataDxfId="30"/>
-    <tableColumn id="3" name="MANAGER_ID" dataDxfId="29"/>
-    <tableColumn id="4" name="LOCATION_ID" dataDxfId="28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A109:K216" displayName="Table6" name="Table6" id="4" totalsRowShown="0">
+  <autoFilter ref="A109:K216"/>
+  <tableColumns count="11">
+    <tableColumn name="EMPLOYEE_ID" id="1"/>
+    <tableColumn name="FIRSTNAME" id="2"/>
+    <tableColumn name="LASTNAME" id="3"/>
+    <tableColumn name="EMAIL" id="4"/>
+    <tableColumn name="PHONE_NUMBER" id="5"/>
+    <tableColumn name="HIRE_DATE" id="6"/>
+    <tableColumn name="JOB_ID" id="7"/>
+    <tableColumn name="SALARY" id="8"/>
+    <tableColumn name="COMMISSION_PCT" id="9"/>
+    <tableColumn name="MANAGER_ID" id="10"/>
+    <tableColumn name="DEPARTMENT_ID" id="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A88:D107" totalsRowShown="0" headerRowDxfId="20" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A88:D107" displayName="Table5" name="Table5" id="5" totalsRowShown="0">
   <autoFilter ref="A88:D107"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="JOB_ID" dataDxfId="25"/>
-    <tableColumn id="2" name="JOB_TITLE" dataDxfId="24"/>
-    <tableColumn id="3" name="MIN_SALARY" dataDxfId="23"/>
-    <tableColumn id="4" name="MAX_SALARY" dataDxfId="22"/>
+    <tableColumn name="JOB_ID" id="1"/>
+    <tableColumn name="JOB_TITLE" id="2"/>
+    <tableColumn name="MIN_SALARY" id="3"/>
+    <tableColumn name="MAX_SALARY" id="4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A109:K216" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
-  <autoFilter ref="A109:K216"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="EMPLOYEE_ID" dataDxfId="19"/>
-    <tableColumn id="2" name="FIRSTNAME" dataDxfId="18"/>
-    <tableColumn id="3" name="LASTNAME" dataDxfId="17"/>
-    <tableColumn id="4" name="EMAIL" dataDxfId="16"/>
-    <tableColumn id="5" name="PHONE_NUMBER" dataDxfId="15"/>
-    <tableColumn id="6" name="HIRE_DATE" dataDxfId="14"/>
-    <tableColumn id="7" name="JOB_ID" dataDxfId="13"/>
-    <tableColumn id="8" name="SALARY" dataDxfId="12"/>
-    <tableColumn id="9" name="COMMISSION_PCT" dataDxfId="11"/>
-    <tableColumn id="10" name="MANAGER_ID" dataDxfId="10"/>
-    <tableColumn id="11" name="DEPARTMENT_ID" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A59:D86" displayName="Table4" name="Table4" id="6" totalsRowShown="0">
+  <autoFilter ref="A59:D86"/>
+  <tableColumns count="4">
+    <tableColumn name="DEPARTMENT_ID" id="1"/>
+    <tableColumn name="DEPARTMENT_NAME" id="2"/>
+    <tableColumn name="MANAGER_ID" id="3"/>
+    <tableColumn name="LOCATION_ID" id="4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A218:E228" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A218:E228"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="EMPLOYEE_ID" dataDxfId="6"/>
-    <tableColumn id="2" name="START_DATE" dataDxfId="5"/>
-    <tableColumn id="3" name="END_DATE" dataDxfId="4"/>
-    <tableColumn id="4" name="JOB_ID" dataDxfId="3"/>
-    <tableColumn id="5" name="DEPARTMENT_ID" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A34:F57" displayName="Table3" name="Table3" id="7" totalsRowShown="0">
+  <autoFilter ref="A34:F57"/>
+  <tableColumns count="6">
+    <tableColumn name="LOCATION_ID" id="1"/>
+    <tableColumn name="STREET_ADDRESS" id="2"/>
+    <tableColumn name="POSTAL_CODE" id="3"/>
+    <tableColumn name="CITY" id="4"/>
+    <tableColumn name="STATE_PROVINCE" id="5"/>
+    <tableColumn name="COUNTRY_CODE" id="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -2498,10 +2387,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2528,82 +2417,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2615,995 +2504,1436 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:K228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.77734375" style="1"/>
+    <col min="1" max="1" style="9" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="16.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>698</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>700</v>
+        <v>58</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>701</v>
+        <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>702</v>
+        <v>61</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1">
         <v>1000</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>55</v>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C35" s="1">
         <v>989</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="1">
         <v>1100</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>57</v>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C36" s="1">
         <v>10934</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="1">
         <v>1200</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>59</v>
+      <c r="B37" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C37" s="1">
         <v>1689</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="1">
         <v>1300</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>62</v>
+      <c r="B38" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C38" s="1">
         <v>6823</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="1">
         <v>1400</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>64</v>
+      <c r="B39" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C39" s="1">
         <v>26192</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="1">
         <v>1500</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>67</v>
+      <c r="B40" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C40" s="1">
         <v>99236</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1">
         <v>1600</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>70</v>
+      <c r="B41" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C41" s="1">
         <v>50090</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="1">
         <v>1700</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>73</v>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C42" s="1">
         <v>98199</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="1">
         <v>1800</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>76</v>
+      <c r="B43" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="1">
         <v>1900</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>80</v>
+      <c r="B44" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="1">
         <v>2000</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>84</v>
+      <c r="B45" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C45" s="1">
         <v>190518</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="1">
         <v>2100</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>86</v>
+      <c r="B46" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C46" s="1">
         <v>490231</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="1">
         <v>2200</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>89</v>
+      <c r="B47" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C47" s="1">
         <v>2901</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="1">
         <v>2300</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>92</v>
+      <c r="B48" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C48" s="1">
         <v>540198</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="1">
         <v>2400</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>93</v>
+      <c r="B49" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="1">
         <v>2500</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>95</v>
+      <c r="B50" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="1">
         <v>2600</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>99</v>
+      <c r="B51" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C51" s="1">
         <v>9629850293</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="1">
         <v>2700</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>102</v>
+      <c r="B52" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C52" s="1">
         <v>80925</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="1">
         <v>2800</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>105</v>
+      <c r="B53" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="1">
         <v>2900</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>108</v>
+      <c r="B54" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C54" s="1">
         <v>1730</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="1">
         <v>3000</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>111</v>
+      <c r="B55" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C55" s="1">
         <v>3095</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="1">
         <v>3100</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>113</v>
+      <c r="B56" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="1">
         <v>3200</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>116</v>
+      <c r="B57" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C57" s="1">
         <v>11932</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>706</v>
+        <v>130</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>707</v>
+        <v>132</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="1">
         <v>10</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>119</v>
+      <c r="B60" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C60" s="1">
         <v>200</v>
@@ -3611,13 +3941,20 @@
       <c r="D60" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E60" s="3"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="1">
         <v>20</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>120</v>
+      <c r="B61" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C61" s="1">
         <v>201</v>
@@ -3625,13 +3962,20 @@
       <c r="D61" s="1">
         <v>1800</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E61" s="3"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>121</v>
+      <c r="B62" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="C62" s="1">
         <v>114</v>
@@ -3639,13 +3983,20 @@
       <c r="D62" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E62" s="3"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="1">
         <v>40</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>122</v>
+      <c r="B63" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C63" s="1">
         <v>203</v>
@@ -3653,13 +4004,20 @@
       <c r="D63" s="1">
         <v>2400</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E63" s="3"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="1">
         <v>50</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>123</v>
+      <c r="B64" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C64" s="1">
         <v>121</v>
@@ -3667,13 +4025,20 @@
       <c r="D64" s="1">
         <v>1500</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" s="3"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="1">
         <v>60</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>5</v>
+      <c r="B65" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C65" s="1">
         <v>103</v>
@@ -3681,13 +4046,20 @@
       <c r="D65" s="1">
         <v>1400</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="3"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="1">
         <v>70</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>124</v>
+      <c r="B66" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C66" s="1">
         <v>204</v>
@@ -3695,13 +4067,20 @@
       <c r="D66" s="1">
         <v>2700</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="3"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="1">
         <v>80</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>125</v>
+      <c r="B67" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="C67" s="1">
         <v>145</v>
@@ -3709,13 +4088,20 @@
       <c r="D67" s="1">
         <v>2500</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="3"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="1">
         <v>90</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>126</v>
+      <c r="B68" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C68" s="1">
         <v>100</v>
@@ -3723,13 +4109,20 @@
       <c r="D68" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="3"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="1">
         <v>100</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>127</v>
+      <c r="B69" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C69" s="1">
         <v>108</v>
@@ -3737,13 +4130,20 @@
       <c r="D69" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="3"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="1">
         <v>110</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>128</v>
+      <c r="B70" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="C70" s="1">
         <v>205</v>
@@ -3751,251 +4151,390 @@
       <c r="D70" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="3"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="1">
         <v>120</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>129</v>
+      <c r="B71" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D71" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="3"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="1">
         <v>130</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>130</v>
+      <c r="B72" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D72" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" s="3"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="1">
         <v>140</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>131</v>
+      <c r="B73" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D73" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" s="3"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="1">
         <v>150</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>132</v>
+      <c r="B74" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D74" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" s="3"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="1">
         <v>160</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>133</v>
+      <c r="B75" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D75" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" s="3"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="1">
         <v>170</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>134</v>
+      <c r="B76" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D76" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" s="3"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="1">
         <v>180</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>135</v>
+      <c r="B77" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D77" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" s="3"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="1">
         <v>190</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>136</v>
+      <c r="B78" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D78" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" s="3"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="1">
         <v>200</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>137</v>
+      <c r="B79" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D79" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" s="3"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="1">
         <v>210</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>138</v>
+      <c r="B80" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D80" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" s="3"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="1">
         <v>220</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>139</v>
+      <c r="B81" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D81" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81" s="3"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="1">
         <v>230</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>140</v>
+      <c r="B82" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D82" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" s="3"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="1">
         <v>240</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>141</v>
+      <c r="B83" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D83" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" s="3"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="1">
         <v>250</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>142</v>
+      <c r="B84" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D84" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" s="3"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="1">
         <v>260</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>143</v>
+      <c r="B85" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D85" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" s="3"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="1">
         <v>270</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>144</v>
+      <c r="B86" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D86" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>709</v>
+        <v>159</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>710</v>
+        <v>161</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>146</v>
+        <v>163</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="C89" s="1">
         <v>20000</v>
@@ -4003,13 +4542,20 @@
       <c r="D89" s="1">
         <v>40000</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" s="3"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>148</v>
+        <v>165</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="C90" s="1">
         <v>15000</v>
@@ -4017,13 +4563,20 @@
       <c r="D90" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" s="3"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>150</v>
+        <v>167</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C91" s="1">
         <v>3000</v>
@@ -4031,13 +4584,20 @@
       <c r="D91" s="1">
         <v>6000</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" s="3"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>152</v>
+        <v>169</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C92" s="1">
         <v>8200</v>
@@ -4045,13 +4605,20 @@
       <c r="D92" s="1">
         <v>16000</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" s="3"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>154</v>
+        <v>171</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C93" s="1">
         <v>4200</v>
@@ -4059,13 +4626,20 @@
       <c r="D93" s="1">
         <v>9000</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" s="3"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="C94" s="1">
         <v>8200</v>
@@ -4073,13 +4647,20 @@
       <c r="D94" s="1">
         <v>16000</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" s="3"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>158</v>
+        <v>175</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="C95" s="1">
         <v>4200</v>
@@ -4087,13 +4668,20 @@
       <c r="D95" s="1">
         <v>9000</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" s="3"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="C96" s="1">
         <v>10000</v>
@@ -4101,13 +4689,20 @@
       <c r="D96" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E96" s="3"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>162</v>
+        <v>179</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="C97" s="1">
         <v>6000</v>
@@ -4115,13 +4710,20 @@
       <c r="D97" s="1">
         <v>12000</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E97" s="3"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>164</v>
+        <v>181</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="C98" s="1">
         <v>8000</v>
@@ -4129,13 +4731,20 @@
       <c r="D98" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E98" s="3"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>166</v>
+        <v>183</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="C99" s="1">
         <v>2500</v>
@@ -4143,13 +4752,20 @@
       <c r="D99" s="1">
         <v>5500</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E99" s="3"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C100" s="1">
         <v>5500</v>
@@ -4157,13 +4773,20 @@
       <c r="D100" s="1">
         <v>8500</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E100" s="3"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="C101" s="1">
         <v>2000</v>
@@ -4171,13 +4794,20 @@
       <c r="D101" s="1">
         <v>5000</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E101" s="3"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>172</v>
+        <v>189</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="C102" s="1">
         <v>2500</v>
@@ -4185,13 +4815,20 @@
       <c r="D102" s="1">
         <v>5500</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E102" s="3"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>174</v>
+        <v>191</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C103" s="1">
         <v>4000</v>
@@ -4199,13 +4836,20 @@
       <c r="D103" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E103" s="3"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>176</v>
+        <v>193</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C104" s="1">
         <v>9000</v>
@@ -4213,13 +4857,20 @@
       <c r="D104" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E104" s="3"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>178</v>
+        <v>195</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C105" s="1">
         <v>4000</v>
@@ -4227,13 +4878,20 @@
       <c r="D105" s="1">
         <v>9000</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E105" s="3"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C106" s="1">
         <v>4000</v>
@@ -4241,13 +4899,20 @@
       <c r="D106" s="1">
         <v>9000</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E106" s="3"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>182</v>
+        <v>199</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C107" s="1">
         <v>4500</v>
@@ -4255,104 +4920,124 @@
       <c r="D107" s="1">
         <v>10500</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E107" s="3"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="A108" s="3"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>713</v>
+        <v>201</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>714</v>
+        <v>203</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>715</v>
+        <v>204</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>708</v>
+        <v>205</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>719</v>
+        <v>207</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>707</v>
+        <v>132</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="1">
         <v>100</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>183</v>
+      <c r="B110" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>145</v>
+        <v>212</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="H110" s="1">
         <v>24000</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>0</v>
+      <c r="I110" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K110" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="1">
         <v>101</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>188</v>
+      <c r="B111" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>147</v>
+        <v>217</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="H111" s="1">
         <v>17000</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>0</v>
+      <c r="I111" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J111" s="1">
         <v>100</v>
@@ -4361,33 +5046,33 @@
         <v>90</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="1">
         <v>102</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>193</v>
+      <c r="B112" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>147</v>
+        <v>222</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="H112" s="1">
         <v>17000</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>0</v>
+      <c r="I112" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J112" s="1">
         <v>100</v>
@@ -4396,33 +5081,33 @@
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="1">
         <v>103</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>198</v>
+      <c r="B113" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>173</v>
+        <v>227</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="H113" s="1">
         <v>9000</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>0</v>
+      <c r="I113" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J113" s="1">
         <v>102</v>
@@ -4431,33 +5116,33 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="1">
         <v>104</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>203</v>
+      <c r="B114" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>173</v>
+        <v>232</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="H114" s="1">
         <v>6000</v>
       </c>
-      <c r="I114" s="1" t="s">
-        <v>0</v>
+      <c r="I114" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J114" s="1">
         <v>103</v>
@@ -4466,33 +5151,33 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="1">
         <v>105</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>208</v>
+      <c r="B115" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>173</v>
+        <v>237</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="H115" s="1">
         <v>4800</v>
       </c>
-      <c r="I115" s="1" t="s">
-        <v>0</v>
+      <c r="I115" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J115" s="1">
         <v>103</v>
@@ -4501,33 +5186,33 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="1">
         <v>106</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>213</v>
+      <c r="B116" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>173</v>
+        <v>242</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="H116" s="1">
         <v>4800</v>
       </c>
-      <c r="I116" s="1" t="s">
-        <v>0</v>
+      <c r="I116" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J116" s="1">
         <v>103</v>
@@ -4536,33 +5221,33 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="1">
         <v>107</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>218</v>
+      <c r="B117" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>173</v>
+        <v>247</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="H117" s="1">
         <v>4200</v>
       </c>
-      <c r="I117" s="1" t="s">
-        <v>0</v>
+      <c r="I117" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J117" s="1">
         <v>103</v>
@@ -4571,33 +5256,33 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="1">
         <v>108</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>223</v>
+      <c r="B118" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>151</v>
+        <v>252</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="H118" s="1">
         <v>12000</v>
       </c>
-      <c r="I118" s="1" t="s">
-        <v>0</v>
+      <c r="I118" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J118" s="1">
         <v>101</v>
@@ -4606,33 +5291,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="1">
         <v>109</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>228</v>
+      <c r="B119" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>153</v>
+        <v>257</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="H119" s="1">
         <v>9000</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>0</v>
+      <c r="I119" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J119" s="1">
         <v>108</v>
@@ -4641,33 +5326,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="1">
         <v>110</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>233</v>
+      <c r="B120" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>153</v>
+        <v>262</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="H120" s="1">
         <v>8200</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>0</v>
+      <c r="I120" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J120" s="1">
         <v>108</v>
@@ -4676,33 +5361,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="1">
         <v>111</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>238</v>
+      <c r="B121" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>153</v>
+        <v>267</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="H121" s="1">
         <v>7700</v>
       </c>
-      <c r="I121" s="1" t="s">
-        <v>0</v>
+      <c r="I121" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J121" s="1">
         <v>108</v>
@@ -4711,33 +5396,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="1">
         <v>112</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>243</v>
+      <c r="B122" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>153</v>
+        <v>272</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="H122" s="1">
         <v>7800</v>
       </c>
-      <c r="I122" s="1" t="s">
-        <v>0</v>
+      <c r="I122" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J122" s="1">
         <v>108</v>
@@ -4746,33 +5431,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="1">
         <v>113</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>248</v>
+      <c r="B123" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>153</v>
+        <v>277</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="H123" s="1">
         <v>6900</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>0</v>
+      <c r="I123" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J123" s="1">
         <v>108</v>
@@ -4781,33 +5466,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="1">
         <v>114</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>253</v>
+      <c r="B124" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>163</v>
+        <v>282</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="H124" s="1">
         <v>11000</v>
       </c>
-      <c r="I124" s="1" t="s">
-        <v>0</v>
+      <c r="I124" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J124" s="1">
         <v>100</v>
@@ -4816,33 +5501,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="1">
         <v>115</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>198</v>
+      <c r="B125" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>165</v>
+        <v>286</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="H125" s="1">
         <v>3100</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>0</v>
+      <c r="I125" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J125" s="1">
         <v>114</v>
@@ -4851,33 +5536,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="1">
         <v>116</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>262</v>
+      <c r="B126" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>165</v>
+        <v>291</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="H126" s="1">
         <v>2900</v>
       </c>
-      <c r="I126" s="1" t="s">
-        <v>0</v>
+      <c r="I126" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J126" s="1">
         <v>114</v>
@@ -4886,33 +5571,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="1">
         <v>117</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>267</v>
+      <c r="B127" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>165</v>
+        <v>296</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="H127" s="1">
         <v>2800</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>0</v>
+      <c r="I127" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J127" s="1">
         <v>114</v>
@@ -4921,33 +5606,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="1">
         <v>118</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>272</v>
+      <c r="B128" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>165</v>
+        <v>301</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="H128" s="1">
         <v>2600</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>0</v>
+      <c r="I128" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J128" s="1">
         <v>114</v>
@@ -4956,33 +5641,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="1">
         <v>119</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>277</v>
+      <c r="B129" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>165</v>
+        <v>306</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="H129" s="1">
         <v>2500</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>0</v>
+      <c r="I129" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J129" s="1">
         <v>114</v>
@@ -4991,33 +5676,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="1">
         <v>120</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>282</v>
+      <c r="B130" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>167</v>
+        <v>311</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="H130" s="1">
         <v>8000</v>
       </c>
-      <c r="I130" s="1" t="s">
-        <v>0</v>
+      <c r="I130" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J130" s="1">
         <v>100</v>
@@ -5026,33 +5711,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="1">
         <v>121</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>287</v>
+      <c r="B131" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>167</v>
+        <v>316</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="H131" s="1">
         <v>8200</v>
       </c>
-      <c r="I131" s="1" t="s">
-        <v>0</v>
+      <c r="I131" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J131" s="1">
         <v>100</v>
@@ -5061,33 +5746,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="1">
         <v>122</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>292</v>
+      <c r="B132" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>167</v>
+        <v>321</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="H132" s="1">
         <v>7900</v>
       </c>
-      <c r="I132" s="1" t="s">
-        <v>0</v>
+      <c r="I132" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J132" s="1">
         <v>100</v>
@@ -5096,33 +5781,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="1">
         <v>123</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>297</v>
+      <c r="B133" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>167</v>
+        <v>326</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="H133" s="1">
         <v>6500</v>
       </c>
-      <c r="I133" s="1" t="s">
-        <v>0</v>
+      <c r="I133" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J133" s="1">
         <v>100</v>
@@ -5131,33 +5816,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="1">
         <v>124</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>302</v>
+      <c r="B134" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>167</v>
+        <v>331</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="H134" s="1">
         <v>5800</v>
       </c>
-      <c r="I134" s="1" t="s">
-        <v>0</v>
+      <c r="I134" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J134" s="1">
         <v>100</v>
@@ -5166,33 +5851,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="1">
         <v>125</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>307</v>
+      <c r="B135" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>169</v>
+        <v>336</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H135" s="1">
         <v>3200</v>
       </c>
-      <c r="I135" s="1" t="s">
-        <v>0</v>
+      <c r="I135" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J135" s="1">
         <v>120</v>
@@ -5201,33 +5886,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="1">
         <v>126</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>312</v>
+      <c r="B136" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>169</v>
+        <v>341</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H136" s="1">
         <v>2700</v>
       </c>
-      <c r="I136" s="1" t="s">
-        <v>0</v>
+      <c r="I136" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J136" s="1">
         <v>120</v>
@@ -5236,33 +5921,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="1">
         <v>127</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>317</v>
+      <c r="B137" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>169</v>
+        <v>346</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H137" s="1">
         <v>2400</v>
       </c>
-      <c r="I137" s="1" t="s">
-        <v>0</v>
+      <c r="I137" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J137" s="1">
         <v>120</v>
@@ -5271,33 +5956,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="1">
         <v>128</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>183</v>
+      <c r="B138" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>169</v>
+        <v>350</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H138" s="1">
         <v>2200</v>
       </c>
-      <c r="I138" s="1" t="s">
-        <v>0</v>
+      <c r="I138" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J138" s="1">
         <v>120</v>
@@ -5306,33 +5991,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="1">
         <v>129</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>326</v>
+      <c r="B139" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>169</v>
+        <v>355</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H139" s="1">
         <v>3300</v>
       </c>
-      <c r="I139" s="1" t="s">
-        <v>0</v>
+      <c r="I139" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J139" s="1">
         <v>121</v>
@@ -5341,33 +6026,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="1">
         <v>130</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>331</v>
+      <c r="B140" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>169</v>
+        <v>360</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H140" s="1">
         <v>2800</v>
       </c>
-      <c r="I140" s="1" t="s">
-        <v>0</v>
+      <c r="I140" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J140" s="1">
         <v>121</v>
@@ -5376,33 +6061,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="1">
         <v>131</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>317</v>
+      <c r="B141" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>169</v>
+        <v>364</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H141" s="1">
         <v>2500</v>
       </c>
-      <c r="I141" s="1" t="s">
-        <v>0</v>
+      <c r="I141" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J141" s="1">
         <v>121</v>
@@ -5411,33 +6096,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="1">
         <v>132</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>340</v>
+      <c r="B142" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>169</v>
+        <v>369</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H142" s="1">
         <v>2100</v>
       </c>
-      <c r="I142" s="1" t="s">
-        <v>0</v>
+      <c r="I142" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J142" s="1">
         <v>121</v>
@@ -5446,33 +6131,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
       <c r="A143" s="1">
         <v>133</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>345</v>
+      <c r="B143" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>169</v>
+        <v>374</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H143" s="1">
         <v>3300</v>
       </c>
-      <c r="I143" s="1" t="s">
-        <v>0</v>
+      <c r="I143" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J143" s="1">
         <v>122</v>
@@ -5481,33 +6166,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
       <c r="A144" s="1">
         <v>134</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>350</v>
+      <c r="B144" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>169</v>
+        <v>379</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H144" s="1">
         <v>2900</v>
       </c>
-      <c r="I144" s="1" t="s">
-        <v>0</v>
+      <c r="I144" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J144" s="1">
         <v>122</v>
@@ -5516,33 +6201,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
       <c r="A145" s="1">
         <v>135</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>355</v>
+      <c r="B145" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>169</v>
+        <v>384</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H145" s="1">
         <v>2400</v>
       </c>
-      <c r="I145" s="1" t="s">
-        <v>0</v>
+      <c r="I145" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J145" s="1">
         <v>122</v>
@@ -5551,33 +6236,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
       <c r="A146" s="1">
         <v>136</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>360</v>
+      <c r="B146" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>169</v>
+        <v>389</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H146" s="1">
         <v>2200</v>
       </c>
-      <c r="I146" s="1" t="s">
-        <v>0</v>
+      <c r="I146" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J146" s="1">
         <v>122</v>
@@ -5586,33 +6271,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
       <c r="A147" s="1">
         <v>137</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>365</v>
+      <c r="B147" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>169</v>
+        <v>394</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H147" s="1">
         <v>3600</v>
       </c>
-      <c r="I147" s="1" t="s">
-        <v>0</v>
+      <c r="I147" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J147" s="1">
         <v>123</v>
@@ -5621,33 +6306,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
       <c r="A148" s="1">
         <v>138</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>370</v>
+      <c r="B148" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>169</v>
+        <v>399</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H148" s="1">
         <v>3200</v>
       </c>
-      <c r="I148" s="1" t="s">
-        <v>0</v>
+      <c r="I148" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J148" s="1">
         <v>123</v>
@@ -5656,33 +6341,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
       <c r="A149" s="1">
         <v>139</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>233</v>
+      <c r="B149" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>169</v>
+        <v>403</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H149" s="1">
         <v>2700</v>
       </c>
-      <c r="I149" s="1" t="s">
-        <v>0</v>
+      <c r="I149" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J149" s="1">
         <v>123</v>
@@ -5691,33 +6376,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
       <c r="A150" s="1">
         <v>140</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>379</v>
+      <c r="B150" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>169</v>
+        <v>408</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H150" s="1">
         <v>2500</v>
       </c>
-      <c r="I150" s="1" t="s">
-        <v>0</v>
+      <c r="I150" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J150" s="1">
         <v>123</v>
@@ -5726,33 +6411,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
       <c r="A151" s="1">
         <v>141</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>384</v>
+      <c r="B151" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>169</v>
+        <v>413</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H151" s="1">
         <v>3500</v>
       </c>
-      <c r="I151" s="1" t="s">
-        <v>0</v>
+      <c r="I151" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J151" s="1">
         <v>124</v>
@@ -5761,33 +6446,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
       <c r="A152" s="1">
         <v>142</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>389</v>
+      <c r="B152" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>169</v>
+        <v>418</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H152" s="1">
         <v>3100</v>
       </c>
-      <c r="I152" s="1" t="s">
-        <v>0</v>
+      <c r="I152" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J152" s="1">
         <v>124</v>
@@ -5796,33 +6481,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
       <c r="A153" s="1">
         <v>143</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>394</v>
+      <c r="B153" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>169</v>
+        <v>423</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H153" s="1">
         <v>2600</v>
       </c>
-      <c r="I153" s="1" t="s">
-        <v>0</v>
+      <c r="I153" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J153" s="1">
         <v>124</v>
@@ -5831,33 +6516,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
       <c r="A154" s="1">
         <v>144</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>399</v>
+      <c r="B154" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>169</v>
+        <v>428</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H154" s="1">
         <v>2500</v>
       </c>
-      <c r="I154" s="1" t="s">
-        <v>0</v>
+      <c r="I154" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J154" s="1">
         <v>124</v>
@@ -5866,32 +6551,32 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
       <c r="A155" s="1">
         <v>145</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>233</v>
+      <c r="B155" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>159</v>
+        <v>432</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="H155" s="1">
         <v>14000</v>
       </c>
-      <c r="I155" s="1">
+      <c r="I155" s="8">
         <v>0.4</v>
       </c>
       <c r="J155" s="1">
@@ -5901,32 +6586,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
       <c r="A156" s="1">
         <v>146</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>277</v>
+      <c r="B156" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>159</v>
+        <v>436</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="H156" s="1">
         <v>13500</v>
       </c>
-      <c r="I156" s="1">
+      <c r="I156" s="8">
         <v>0.3</v>
       </c>
       <c r="J156" s="1">
@@ -5936,32 +6621,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
       <c r="A157" s="1">
         <v>147</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>412</v>
+      <c r="B157" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>159</v>
+        <v>441</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="H157" s="1">
         <v>12000</v>
       </c>
-      <c r="I157" s="1">
+      <c r="I157" s="8">
         <v>0.3</v>
       </c>
       <c r="J157" s="1">
@@ -5971,32 +6656,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
       <c r="A158" s="1">
         <v>148</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>416</v>
+      <c r="B158" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>159</v>
+        <v>445</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="H158" s="1">
         <v>11000</v>
       </c>
-      <c r="I158" s="1">
+      <c r="I158" s="8">
         <v>0.3</v>
       </c>
       <c r="J158" s="1">
@@ -6006,32 +6691,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
       <c r="A159" s="1">
         <v>149</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>421</v>
+      <c r="B159" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>159</v>
+        <v>450</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="H159" s="1">
         <v>10500</v>
       </c>
-      <c r="I159" s="1">
+      <c r="I159" s="8">
         <v>0.2</v>
       </c>
       <c r="J159" s="1">
@@ -6041,32 +6726,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
       <c r="A160" s="1">
         <v>150</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>399</v>
+      <c r="B160" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>161</v>
+        <v>454</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H160" s="1">
         <v>10000</v>
       </c>
-      <c r="I160" s="1">
+      <c r="I160" s="8">
         <v>0.3</v>
       </c>
       <c r="J160" s="1">
@@ -6076,32 +6761,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
       <c r="A161" s="1">
         <v>151</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>208</v>
+      <c r="B161" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>161</v>
+        <v>458</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H161" s="1">
         <v>9500</v>
       </c>
-      <c r="I161" s="1">
+      <c r="I161" s="8">
         <v>0.25</v>
       </c>
       <c r="J161" s="1">
@@ -6111,32 +6796,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
       <c r="A162" s="1">
         <v>152</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>399</v>
+      <c r="B162" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>161</v>
+        <v>462</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H162" s="1">
         <v>9000</v>
       </c>
-      <c r="I162" s="1">
+      <c r="I162" s="8">
         <v>0.25</v>
       </c>
       <c r="J162" s="1">
@@ -6146,32 +6831,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
       <c r="A163" s="1">
         <v>153</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>437</v>
+      <c r="B163" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>161</v>
+        <v>466</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H163" s="1">
         <v>8000</v>
       </c>
-      <c r="I163" s="1">
+      <c r="I163" s="8">
         <v>0.2</v>
       </c>
       <c r="J163" s="1">
@@ -6181,32 +6866,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
       <c r="A164" s="1">
         <v>154</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>442</v>
+      <c r="B164" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>161</v>
+        <v>470</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H164" s="1">
         <v>7500</v>
       </c>
-      <c r="I164" s="1">
+      <c r="I164" s="8">
         <v>0.2</v>
       </c>
       <c r="J164" s="1">
@@ -6216,32 +6901,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="1">
         <v>155</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>446</v>
+      <c r="B165" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>161</v>
+        <v>475</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H165" s="1">
         <v>7000</v>
       </c>
-      <c r="I165" s="1">
+      <c r="I165" s="8">
         <v>0.15</v>
       </c>
       <c r="J165" s="1">
@@ -6251,32 +6936,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="1">
         <v>156</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>451</v>
+      <c r="B166" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>161</v>
+        <v>479</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H166" s="1">
         <v>10000</v>
       </c>
-      <c r="I166" s="1">
+      <c r="I166" s="8">
         <v>0.35</v>
       </c>
       <c r="J166" s="1">
@@ -6286,32 +6971,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="1">
         <v>157</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>455</v>
+      <c r="B167" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>161</v>
+        <v>484</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H167" s="1">
         <v>9500</v>
       </c>
-      <c r="I167" s="1">
+      <c r="I167" s="8">
         <v>0.35</v>
       </c>
       <c r="J167" s="1">
@@ -6321,32 +7006,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="1">
         <v>158</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>460</v>
+      <c r="B168" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>161</v>
+        <v>489</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H168" s="1">
         <v>9000</v>
       </c>
-      <c r="I168" s="1">
+      <c r="I168" s="8">
         <v>0.35</v>
       </c>
       <c r="J168" s="1">
@@ -6356,32 +7041,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="1">
         <v>159</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>465</v>
+      <c r="B169" s="2" t="s">
+        <v>491</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>161</v>
+        <v>494</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H169" s="1">
         <v>8000</v>
       </c>
-      <c r="I169" s="1">
+      <c r="I169" s="8">
         <v>0.3</v>
       </c>
       <c r="J169" s="1">
@@ -6391,32 +7076,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="1">
         <v>160</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>469</v>
+      <c r="B170" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>161</v>
+        <v>498</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H170" s="1">
         <v>7500</v>
       </c>
-      <c r="I170" s="1">
+      <c r="I170" s="8">
         <v>0.3</v>
       </c>
       <c r="J170" s="1">
@@ -6426,32 +7111,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="1">
         <v>161</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>474</v>
+      <c r="B171" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>161</v>
+        <v>503</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H171" s="1">
         <v>7000</v>
       </c>
-      <c r="I171" s="1">
+      <c r="I171" s="8">
         <v>0.25</v>
       </c>
       <c r="J171" s="1">
@@ -6461,32 +7146,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="1">
         <v>162</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>479</v>
+      <c r="B172" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>161</v>
+        <v>508</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H172" s="1">
         <v>10500</v>
       </c>
-      <c r="I172" s="1">
+      <c r="I172" s="8">
         <v>0.25</v>
       </c>
       <c r="J172" s="1">
@@ -6496,32 +7181,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
       <c r="A173" s="1">
         <v>163</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>484</v>
+      <c r="B173" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>161</v>
+        <v>513</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H173" s="1">
         <v>9500</v>
       </c>
-      <c r="I173" s="1">
+      <c r="I173" s="8">
         <v>0.15</v>
       </c>
       <c r="J173" s="1">
@@ -6531,32 +7216,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="1">
         <v>164</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>489</v>
+      <c r="B174" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>161</v>
+        <v>518</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H174" s="1">
         <v>7200</v>
       </c>
-      <c r="I174" s="1">
+      <c r="I174" s="8">
         <v>0.1</v>
       </c>
       <c r="J174" s="1">
@@ -6566,32 +7251,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
       <c r="A175" s="1">
         <v>165</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>208</v>
+      <c r="B175" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>161</v>
+        <v>522</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H175" s="1">
         <v>6800</v>
       </c>
-      <c r="I175" s="1">
+      <c r="I175" s="8">
         <v>0.1</v>
       </c>
       <c r="J175" s="1">
@@ -6601,32 +7286,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="1">
         <v>166</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>498</v>
+      <c r="B176" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>161</v>
+        <v>527</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H176" s="1">
         <v>6400</v>
       </c>
-      <c r="I176" s="1">
+      <c r="I176" s="8">
         <v>0.1</v>
       </c>
       <c r="J176" s="1">
@@ -6636,32 +7321,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="1">
         <v>167</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>503</v>
+      <c r="B177" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>161</v>
+        <v>532</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H177" s="1">
         <v>6200</v>
       </c>
-      <c r="I177" s="1">
+      <c r="I177" s="8">
         <v>0.1</v>
       </c>
       <c r="J177" s="1">
@@ -6671,32 +7356,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="1">
         <v>168</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>508</v>
+      <c r="B178" s="2" t="s">
+        <v>534</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>161</v>
+        <v>537</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H178" s="1">
         <v>11500</v>
       </c>
-      <c r="I178" s="1">
+      <c r="I178" s="8">
         <v>0.25</v>
       </c>
       <c r="J178" s="1">
@@ -6706,32 +7391,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="1">
         <v>169</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>513</v>
+      <c r="B179" s="2" t="s">
+        <v>539</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>161</v>
+        <v>542</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H179" s="1">
         <v>10000</v>
       </c>
-      <c r="I179" s="1">
+      <c r="I179" s="8">
         <v>0.2</v>
       </c>
       <c r="J179" s="1">
@@ -6741,32 +7426,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="1">
         <v>170</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>518</v>
+      <c r="B180" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>161</v>
+        <v>547</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H180" s="1">
         <v>9600</v>
       </c>
-      <c r="I180" s="1">
+      <c r="I180" s="8">
         <v>0.2</v>
       </c>
       <c r="J180" s="1">
@@ -6776,32 +7461,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
       <c r="A181" s="1">
         <v>171</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>523</v>
+      <c r="B181" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>161</v>
+        <v>551</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H181" s="1">
         <v>7400</v>
       </c>
-      <c r="I181" s="1">
+      <c r="I181" s="8">
         <v>0.15</v>
       </c>
       <c r="J181" s="1">
@@ -6811,32 +7496,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="1">
         <v>172</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>527</v>
+      <c r="B182" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>161</v>
+        <v>556</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H182" s="1">
         <v>7300</v>
       </c>
-      <c r="I182" s="1">
+      <c r="I182" s="8">
         <v>0.15</v>
       </c>
       <c r="J182" s="1">
@@ -6846,32 +7531,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="1">
         <v>173</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>532</v>
+      <c r="B183" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F183" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>161</v>
+      <c r="G183" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H183" s="1">
         <v>6100</v>
       </c>
-      <c r="I183" s="1">
+      <c r="I183" s="8">
         <v>0.1</v>
       </c>
       <c r="J183" s="1">
@@ -6881,32 +7566,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="1">
         <v>174</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>536</v>
+      <c r="B184" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>161</v>
+        <v>565</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H184" s="1">
         <v>11000</v>
       </c>
-      <c r="I184" s="1">
+      <c r="I184" s="8">
         <v>0.3</v>
       </c>
       <c r="J184" s="1">
@@ -6916,32 +7601,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="1">
         <v>175</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>541</v>
+      <c r="B185" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>543</v>
+        <v>569</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>161</v>
+        <v>570</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H185" s="1">
         <v>8800</v>
       </c>
-      <c r="I185" s="1">
+      <c r="I185" s="8">
         <v>0.25</v>
       </c>
       <c r="J185" s="1">
@@ -6951,32 +7636,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="1">
         <v>176</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>546</v>
+      <c r="B186" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>548</v>
+        <v>574</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>161</v>
+        <v>575</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H186" s="1">
         <v>8600</v>
       </c>
-      <c r="I186" s="1">
+      <c r="I186" s="8">
         <v>0.2</v>
       </c>
       <c r="J186" s="1">
@@ -6986,32 +7671,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="1">
         <v>177</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>551</v>
+      <c r="B187" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>161</v>
+        <v>580</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H187" s="1">
         <v>8400</v>
       </c>
-      <c r="I187" s="1">
+      <c r="I187" s="8">
         <v>0.2</v>
       </c>
       <c r="J187" s="1">
@@ -7021,67 +7706,67 @@
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="1">
         <v>178</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>555</v>
+      <c r="B188" s="2" t="s">
+        <v>581</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>161</v>
+        <v>584</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H188" s="1">
         <v>7000</v>
       </c>
-      <c r="I188" s="1">
+      <c r="I188" s="8">
         <v>0.15</v>
       </c>
       <c r="J188" s="1">
         <v>149</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
       <c r="A189" s="1">
         <v>179</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>560</v>
+      <c r="B189" s="2" t="s">
+        <v>586</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>161</v>
+        <v>589</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H189" s="1">
         <v>6200</v>
       </c>
-      <c r="I189" s="1">
+      <c r="I189" s="8">
         <v>0.1</v>
       </c>
       <c r="J189" s="1">
@@ -7091,33 +7776,33 @@
         <v>80</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="1">
         <v>180</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>565</v>
+      <c r="B190" s="2" t="s">
+        <v>591</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>171</v>
+        <v>593</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H190" s="1">
         <v>3200</v>
       </c>
-      <c r="I190" s="1" t="s">
-        <v>0</v>
+      <c r="I190" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J190" s="1">
         <v>120</v>
@@ -7126,33 +7811,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
       <c r="A191" s="1">
         <v>181</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>568</v>
+      <c r="B191" s="2" t="s">
+        <v>594</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>171</v>
+        <v>597</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H191" s="1">
         <v>3100</v>
       </c>
-      <c r="I191" s="1" t="s">
-        <v>0</v>
+      <c r="I191" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J191" s="1">
         <v>120</v>
@@ -7161,33 +7846,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
       <c r="A192" s="1">
         <v>182</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>573</v>
+      <c r="B192" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>171</v>
+        <v>602</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H192" s="1">
         <v>2500</v>
       </c>
-      <c r="I192" s="1" t="s">
-        <v>0</v>
+      <c r="I192" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J192" s="1">
         <v>120</v>
@@ -7196,33 +7881,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
       <c r="A193" s="1">
         <v>183</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>578</v>
+      <c r="B193" s="2" t="s">
+        <v>604</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>171</v>
+        <v>607</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H193" s="1">
         <v>2800</v>
       </c>
-      <c r="I193" s="1" t="s">
-        <v>0</v>
+      <c r="I193" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J193" s="1">
         <v>120</v>
@@ -7231,33 +7916,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
       <c r="A194" s="1">
         <v>184</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>583</v>
+      <c r="B194" s="2" t="s">
+        <v>609</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>171</v>
+        <v>612</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H194" s="1">
         <v>4200</v>
       </c>
-      <c r="I194" s="1" t="s">
-        <v>0</v>
+      <c r="I194" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J194" s="1">
         <v>121</v>
@@ -7266,33 +7951,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
       <c r="A195" s="1">
         <v>185</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>588</v>
+      <c r="B195" s="2" t="s">
+        <v>614</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>171</v>
+        <v>617</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H195" s="1">
         <v>4100</v>
       </c>
-      <c r="I195" s="1" t="s">
-        <v>0</v>
+      <c r="I195" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J195" s="1">
         <v>121</v>
@@ -7301,33 +7986,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
       <c r="A196" s="1">
         <v>186</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>307</v>
+      <c r="B196" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>171</v>
+        <v>621</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H196" s="1">
         <v>3400</v>
       </c>
-      <c r="I196" s="1" t="s">
-        <v>0</v>
+      <c r="I196" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J196" s="1">
         <v>121</v>
@@ -7336,33 +8021,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
       <c r="A197" s="1">
         <v>187</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>597</v>
+      <c r="B197" s="2" t="s">
+        <v>623</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>171</v>
+        <v>626</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H197" s="1">
         <v>3000</v>
       </c>
-      <c r="I197" s="1" t="s">
-        <v>0</v>
+      <c r="I197" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J197" s="1">
         <v>121</v>
@@ -7371,33 +8056,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
       <c r="A198" s="1">
         <v>188</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>601</v>
+      <c r="B198" s="2" t="s">
+        <v>627</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>171</v>
+        <v>630</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H198" s="1">
         <v>3800</v>
       </c>
-      <c r="I198" s="1" t="s">
-        <v>0</v>
+      <c r="I198" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J198" s="1">
         <v>122</v>
@@ -7406,33 +8091,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
       <c r="A199" s="1">
         <v>189</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>606</v>
+      <c r="B199" s="2" t="s">
+        <v>632</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>171</v>
+        <v>635</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H199" s="1">
         <v>3600</v>
       </c>
-      <c r="I199" s="1" t="s">
-        <v>0</v>
+      <c r="I199" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J199" s="1">
         <v>122</v>
@@ -7441,33 +8126,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
       <c r="A200" s="1">
         <v>190</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>611</v>
+      <c r="B200" s="2" t="s">
+        <v>637</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>171</v>
+        <v>640</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H200" s="1">
         <v>2900</v>
       </c>
-      <c r="I200" s="1" t="s">
-        <v>0</v>
+      <c r="I200" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J200" s="1">
         <v>122</v>
@@ -7476,33 +8161,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
       <c r="A201" s="1">
         <v>191</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>394</v>
+      <c r="B201" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>171</v>
+        <v>644</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H201" s="1">
         <v>2500</v>
       </c>
-      <c r="I201" s="1" t="s">
-        <v>0</v>
+      <c r="I201" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J201" s="1">
         <v>122</v>
@@ -7511,33 +8196,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
       <c r="A202" s="1">
         <v>192</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>620</v>
+      <c r="B202" s="2" t="s">
+        <v>646</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>171</v>
+        <v>649</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H202" s="1">
         <v>4000</v>
       </c>
-      <c r="I202" s="1" t="s">
-        <v>0</v>
+      <c r="I202" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J202" s="1">
         <v>123</v>
@@ -7546,33 +8231,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
       <c r="A203" s="1">
         <v>193</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>625</v>
+      <c r="B203" s="2" t="s">
+        <v>651</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>171</v>
+        <v>654</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H203" s="1">
         <v>3900</v>
       </c>
-      <c r="I203" s="1" t="s">
-        <v>0</v>
+      <c r="I203" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J203" s="1">
         <v>123</v>
@@ -7581,33 +8266,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
       <c r="A204" s="1">
         <v>194</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>630</v>
+      <c r="B204" s="2" t="s">
+        <v>656</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>171</v>
+        <v>659</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H204" s="1">
         <v>3200</v>
       </c>
-      <c r="I204" s="1" t="s">
-        <v>0</v>
+      <c r="I204" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J204" s="1">
         <v>123</v>
@@ -7616,33 +8301,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
       <c r="A205" s="1">
         <v>195</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>635</v>
+      <c r="B205" s="2" t="s">
+        <v>661</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>637</v>
+        <v>663</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>171</v>
+        <v>664</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H205" s="1">
         <v>2800</v>
       </c>
-      <c r="I205" s="1" t="s">
-        <v>0</v>
+      <c r="I205" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J205" s="1">
         <v>123</v>
@@ -7651,33 +8336,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
       <c r="A206" s="1">
         <v>196</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>640</v>
+      <c r="B206" s="2" t="s">
+        <v>666</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>641</v>
+        <v>667</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>171</v>
+        <v>669</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H206" s="1">
         <v>3100</v>
       </c>
-      <c r="I206" s="1" t="s">
-        <v>0</v>
+      <c r="I206" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J206" s="1">
         <v>124</v>
@@ -7686,33 +8371,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
       <c r="A207" s="1">
         <v>197</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>302</v>
+      <c r="B207" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>171</v>
+        <v>672</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H207" s="1">
         <v>3000</v>
       </c>
-      <c r="I207" s="1" t="s">
-        <v>0</v>
+      <c r="I207" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J207" s="1">
         <v>124</v>
@@ -7721,33 +8406,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="1">
         <v>198</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>648</v>
+      <c r="B208" s="2" t="s">
+        <v>674</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>649</v>
+        <v>675</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>650</v>
+        <v>676</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>171</v>
+        <v>677</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H208" s="1">
         <v>2600</v>
       </c>
-      <c r="I208" s="1" t="s">
-        <v>0</v>
+      <c r="I208" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J208" s="1">
         <v>124</v>
@@ -7756,33 +8441,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="1">
         <v>199</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>652</v>
+      <c r="B209" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>653</v>
+        <v>679</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>171</v>
+        <v>680</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H209" s="1">
         <v>2600</v>
       </c>
-      <c r="I209" s="1" t="s">
-        <v>0</v>
+      <c r="I209" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J209" s="1">
         <v>124</v>
@@ -7791,33 +8476,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="1">
         <v>200</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>606</v>
+      <c r="B210" s="2" t="s">
+        <v>632</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>149</v>
+        <v>684</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="H210" s="1">
         <v>4400</v>
       </c>
-      <c r="I210" s="1" t="s">
-        <v>0</v>
+      <c r="I210" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J210" s="1">
         <v>101</v>
@@ -7826,33 +8511,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="1">
         <v>201</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>350</v>
+      <c r="B211" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>175</v>
+        <v>688</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="H211" s="1">
         <v>13000</v>
       </c>
-      <c r="I211" s="1" t="s">
-        <v>0</v>
+      <c r="I211" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J211" s="1">
         <v>100</v>
@@ -7861,33 +8546,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="1">
         <v>202</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>664</v>
+      <c r="B212" s="2" t="s">
+        <v>690</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>665</v>
+        <v>691</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>666</v>
+        <v>692</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>177</v>
+        <v>693</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="H212" s="1">
         <v>6000</v>
       </c>
-      <c r="I212" s="1" t="s">
-        <v>0</v>
+      <c r="I212" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J212" s="1">
         <v>201</v>
@@ -7896,33 +8581,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
       <c r="A213" s="1">
         <v>203</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>669</v>
+      <c r="B213" s="2" t="s">
+        <v>695</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>670</v>
+        <v>696</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>671</v>
+        <v>697</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>179</v>
+        <v>698</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="H213" s="1">
         <v>6500</v>
       </c>
-      <c r="I213" s="1" t="s">
-        <v>0</v>
+      <c r="I213" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J213" s="1">
         <v>101</v>
@@ -7931,33 +8616,33 @@
         <v>40</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
       <c r="A214" s="1">
         <v>204</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>674</v>
+      <c r="B214" s="2" t="s">
+        <v>700</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>675</v>
+        <v>701</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>676</v>
+        <v>702</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>181</v>
+        <v>703</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="H214" s="1">
         <v>10000</v>
       </c>
-      <c r="I214" s="1" t="s">
-        <v>0</v>
+      <c r="I214" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J214" s="1">
         <v>101</v>
@@ -7966,33 +8651,33 @@
         <v>70</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
       <c r="A215" s="1">
         <v>205</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>678</v>
+      <c r="B215" s="2" t="s">
+        <v>704</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>679</v>
+        <v>705</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>680</v>
+        <v>706</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>155</v>
+        <v>707</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="H215" s="1">
         <v>12000</v>
       </c>
-      <c r="I215" s="1" t="s">
-        <v>0</v>
+      <c r="I215" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J215" s="1">
         <v>101</v>
@@ -8001,33 +8686,33 @@
         <v>110</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
       <c r="A216" s="1">
         <v>206</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>523</v>
+      <c r="B216" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>157</v>
+        <v>710</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="H216" s="1">
         <v>8300</v>
       </c>
-      <c r="I216" s="1" t="s">
-        <v>0</v>
+      <c r="I216" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J216" s="1">
         <v>205</v>
@@ -8036,192 +8721,271 @@
         <v>110</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
+      <c r="A217" s="3"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="5"/>
+      <c r="K217" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
       <c r="A218" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>721</v>
-      </c>
       <c r="D218" s="1" t="s">
-        <v>708</v>
+        <v>159</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
       <c r="A219" s="1">
         <v>102</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>197</v>
+      <c r="B219" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>685</v>
+        <v>713</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="E219" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
       <c r="A220" s="1">
         <v>101</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>192</v>
+      <c r="B220" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E220" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="6"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
       <c r="A221" s="1">
         <v>101</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>687</v>
+      <c r="B221" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E221" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="6"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
       <c r="A222" s="1">
         <v>201</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>663</v>
+      <c r="B222" s="2" t="s">
+        <v>689</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="E222" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="6"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
       <c r="A223" s="1">
         <v>114</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>550</v>
+      <c r="B223" s="2" t="s">
+        <v>576</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E223" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="6"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
       <c r="A224" s="1">
         <v>122</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>690</v>
+      <c r="B224" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E224" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="6"/>
+      <c r="J224" s="5"/>
+      <c r="K224" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
       <c r="A225" s="1">
         <v>200</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>659</v>
+      <c r="B225" s="2" t="s">
+        <v>685</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E225" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="6"/>
+      <c r="J225" s="5"/>
+      <c r="K225" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
       <c r="A226" s="1">
         <v>176</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>550</v>
+      <c r="B226" s="2" t="s">
+        <v>576</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E226" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="6"/>
+      <c r="J226" s="5"/>
+      <c r="K226" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
       <c r="A227" s="1">
         <v>176</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>690</v>
+      <c r="B227" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="E227" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="6"/>
+      <c r="J227" s="5"/>
+      <c r="K227" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
       <c r="A228" s="1">
         <v>200</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>693</v>
+      <c r="B228" s="2" t="s">
+        <v>721</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E228" s="1">
         <v>90</v>
       </c>
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="6"/>
+      <c r="J228" s="5"/>
+      <c r="K228" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
